--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T18:15:07+00:00</t>
+    <t>2022-10-23T19:27:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -780,7 +780,7 @@
     <t>AdministrableProductDefinition.producedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ManufacturedItemDefinition)
+    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLManufacturedItemDefinition)
 </t>
   </si>
   <si>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T19:27:30+00:00</t>
+    <t>2022-10-23T19:35:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -495,7 +495,7 @@
     <t>AdministrableProductDefinition.formOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicinalProductDefinition)
+    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLMedicinalProductDefinition)
 </t>
   </si>
   <si>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T19:35:12+00:00</t>
+    <t>2022-10-23T20:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T20:13:34+00:00</t>
+    <t>2022-10-25T12:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T12:14:01+00:00</t>
+    <t>2022-10-25T13:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T13:47:24+00:00</t>
+    <t>2022-10-30T17:01:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2740" uniqueCount="365">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T17:01:43+00:00</t>
+    <t>2022-10-30T18:15:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -949,6 +949,42 @@
   </si>
   <si>
     <t>Route of Administration.Route of Administration</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.routeOfAdministration.code.id</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.routeOfAdministration.code.extension</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.routeOfAdministration.code.coding</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.routeOfAdministration.code.coding.id</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.routeOfAdministration.code.coding.extension</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.routeOfAdministration.code.coding.system</t>
+  </si>
+  <si>
+    <t>https://spor.ema.europa.eu/rmswi/#/lists/100000073345/terms</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.routeOfAdministration.code.coding.version</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.routeOfAdministration.code.coding.code</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.routeOfAdministration.code.coding.display</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.routeOfAdministration.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.routeOfAdministration.code.text</t>
   </si>
   <si>
     <t>AdministrableProductDefinition.routeOfAdministration.firstDose</t>
@@ -1398,7 +1434,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL69"/>
+  <dimension ref="A1:AL80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -7073,16 +7109,16 @@
         <v>76</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>304</v>
+        <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>305</v>
+        <v>168</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>306</v>
+        <v>169</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7133,7 +7169,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>303</v>
+        <v>170</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
@@ -7145,32 +7181,32 @@
         <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>307</v>
+        <v>76</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>76</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>76</v>
@@ -7179,18 +7215,20 @@
         <v>76</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>304</v>
+        <v>129</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>309</v>
+        <v>130</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>76</v>
@@ -7227,45 +7265,45 @@
         <v>76</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>308</v>
+        <v>176</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>311</v>
+        <v>76</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>76</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7276,7 +7314,7 @@
         <v>74</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>76</v>
@@ -7288,16 +7326,20 @@
         <v>84</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>304</v>
+        <v>178</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>313</v>
+        <v>179</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
       </c>
@@ -7345,13 +7387,13 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>312</v>
+        <v>183</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>76</v>
@@ -7360,18 +7402,18 @@
         <v>95</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7391,16 +7433,16 @@
         <v>76</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>317</v>
+        <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>318</v>
+        <v>168</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>319</v>
+        <v>169</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7451,7 +7493,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -7463,32 +7505,32 @@
         <v>76</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>320</v>
+        <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>76</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>76</v>
@@ -7497,18 +7539,20 @@
         <v>76</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>322</v>
+        <v>129</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>323</v>
+        <v>130</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>76</v>
@@ -7545,45 +7589,45 @@
         <v>76</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>321</v>
+        <v>176</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>325</v>
+        <v>76</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>76</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7594,7 +7638,7 @@
         <v>74</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>76</v>
@@ -7606,16 +7650,20 @@
         <v>84</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>264</v>
+        <v>97</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>327</v>
+        <v>188</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>76</v>
       </c>
@@ -7624,7 +7672,7 @@
         <v>76</v>
       </c>
       <c r="R58" t="s" s="2">
-        <v>76</v>
+        <v>309</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>76</v>
@@ -7663,13 +7711,13 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>326</v>
+        <v>193</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>76</v>
@@ -7678,18 +7726,18 @@
         <v>95</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>76</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7709,18 +7757,20 @@
         <v>76</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>196</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>76</v>
@@ -7769,7 +7819,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -7781,7 +7831,7 @@
         <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>76</v>
@@ -7790,23 +7840,23 @@
         <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>153</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>76</v>
@@ -7815,21 +7865,21 @@
         <v>76</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
       </c>
@@ -7877,19 +7927,19 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>76</v>
@@ -7898,47 +7948,45 @@
         <v>76</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>153</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>271</v>
+        <v>76</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>272</v>
+        <v>209</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>76</v>
@@ -7987,19 +8035,19 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>274</v>
+        <v>212</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>76</v>
@@ -8008,12 +8056,12 @@
         <v>76</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>126</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8021,7 +8069,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>83</v>
@@ -8036,16 +8084,20 @@
         <v>84</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>333</v>
+        <v>216</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>76</v>
       </c>
@@ -8069,13 +8121,13 @@
         <v>76</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>335</v>
+        <v>76</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>336</v>
+        <v>76</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>76</v>
@@ -8093,10 +8145,10 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>332</v>
+        <v>220</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>83</v>
@@ -8108,18 +8160,18 @@
         <v>95</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>76</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8130,7 +8182,7 @@
         <v>74</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>76</v>
@@ -8142,16 +8194,20 @@
         <v>84</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>264</v>
+        <v>196</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>338</v>
+        <v>223</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>76</v>
       </c>
@@ -8199,13 +8255,13 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>337</v>
+        <v>227</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>76</v>
@@ -8214,18 +8270,18 @@
         <v>95</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8245,16 +8301,16 @@
         <v>76</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>196</v>
+        <v>316</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>168</v>
+        <v>317</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>169</v>
+        <v>318</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8305,7 +8361,7 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>170</v>
+        <v>315</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>74</v>
@@ -8317,32 +8373,32 @@
         <v>76</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>76</v>
+        <v>319</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>76</v>
@@ -8351,20 +8407,18 @@
         <v>76</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>129</v>
+        <v>316</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>130</v>
+        <v>321</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>76</v>
@@ -8413,69 +8467,65 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>176</v>
+        <v>320</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>271</v>
+        <v>76</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>129</v>
+        <v>316</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>272</v>
+        <v>325</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>76</v>
       </c>
@@ -8523,33 +8573,33 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>274</v>
+        <v>324</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>76</v>
+        <v>327</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>126</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8557,7 +8607,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>83</v>
@@ -8572,13 +8622,13 @@
         <v>84</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>160</v>
+        <v>329</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8605,13 +8655,13 @@
         <v>76</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>335</v>
+        <v>76</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>346</v>
+        <v>76</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>76</v>
@@ -8629,10 +8679,10 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>83</v>
@@ -8644,7 +8694,7 @@
         <v>95</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>153</v>
+        <v>332</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>76</v>
@@ -8655,7 +8705,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8663,7 +8713,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>83</v>
@@ -8678,13 +8728,13 @@
         <v>84</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8735,10 +8785,10 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>83</v>
@@ -8750,7 +8800,7 @@
         <v>95</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>153</v>
+        <v>337</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>76</v>
@@ -8761,7 +8811,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8772,7 +8822,7 @@
         <v>74</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>76</v>
@@ -8784,13 +8834,13 @@
         <v>84</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>196</v>
+        <v>264</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8841,13 +8891,13 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>76</v>
@@ -8862,6 +8912,1184 @@
         <v>76</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL80" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T18:15:34+00:00</t>
+    <t>2022-10-30T20:04:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T20:04:00+00:00</t>
+    <t>2022-10-30T21:50:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T21:50:47+00:00</t>
+    <t>2022-10-30T22:04:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T22:04:36+00:00</t>
+    <t>2022-10-30T22:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T22:13:17+00:00</t>
+    <t>2022-11-02T06:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T06:16:24+00:00</t>
+    <t>2022-11-02T20:48:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T20:48:31+00:00</t>
+    <t>2022-11-03T14:07:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T15:30:00+00:00</t>
+    <t>2022-11-05T15:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -726,7 +726,7 @@
     <t>AdministrableProductDefinition.unitOfPresentation</t>
   </si>
   <si>
-    <t>Unit of presentation of the administrable product (after preparing for administration)</t>
+    <t>Unit of presentation of the administrable product (after preparing for administration). Not applicable for certain products/packaging.</t>
   </si>
   <si>
     <t>The presentation type in which this item is given to a patient. e.g. for a spray - 'puff' (as in 'contains 100 mcg per puff'), or for a liquid - 'vial' (as in 'contains 5 ml per vial').</t>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>83</v>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T15:35:25+00:00</t>
+    <t>2022-11-06T17:03:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -518,7 +518,7 @@
     <t>Dose form of the administrable product (after preparing for administration)</t>
   </si>
   <si>
-    <t>The dose form of the final product after necessary reconstitution or processing. Contrasts to the manufactured dose form (see ManufacturedItemDefinition). If the manufactured form was 'powder for solution for injection', the administrable dose form could be 'solution for injection' (once mixed with another item having manufactured form 'solvent for solution for injection').</t>
+    <t>EMA IG 6.2</t>
   </si>
   <si>
     <t>example</t>
@@ -729,7 +729,7 @@
     <t>Unit of presentation of the administrable product (after preparing for administration). Not applicable for certain products/packaging.</t>
   </si>
   <si>
-    <t>The presentation type in which this item is given to a patient. e.g. for a spray - 'puff' (as in 'contains 100 mcg per puff'), or for a liquid - 'vial' (as in 'contains 5 ml per vial').</t>
+    <t>EMA IG 6.3</t>
   </si>
   <si>
     <t>The presentation type in which an administrable medicinal product is given to a patient.</t>
@@ -918,7 +918,7 @@
     <t>The path by which the product is taken into or makes contact with the body</t>
   </si>
   <si>
-    <t>The path by which the product is taken into or makes contact with the body. In some regions this is referred to as the licenced or approved route. RouteOfAdministration cannot be used when the 'formOf' product already uses MedicinalProductDefinition.route (and vice versa).</t>
+    <t>EMA IG 6.6</t>
   </si>
   <si>
     <t>Pharmaceutical Product.Route of Administration</t>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T17:03:22+00:00</t>
+    <t>2022-11-06T21:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -610,7 +610,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/rmswi/#/lists/200000000004/terms</t>
+    <t>http://spor.ema.europa.eu/v1/lists/200000000004</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -759,7 +759,7 @@
     <t>AdministrableProductDefinition.unitOfPresentation.coding.system</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/rmswi/#/lists/200000000014/terms</t>
+    <t>http://spor.ema.europa.eu/v1/lists/200000000014</t>
   </si>
   <si>
     <t>AdministrableProductDefinition.unitOfPresentation.coding.version</t>
@@ -969,7 +969,7 @@
     <t>AdministrableProductDefinition.routeOfAdministration.code.coding.system</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/rmswi/#/lists/100000073345/terms</t>
+    <t>http://spor.ema.europa.eu/v1/lists/100000073345</t>
   </si>
   <si>
     <t>AdministrableProductDefinition.routeOfAdministration.code.coding.version</t>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T21:19:48+00:00</t>
+    <t>2022-11-06T22:26:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:05:10+00:00</t>
+    <t>2022-11-07T21:23:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:23:46+00:00</t>
+    <t>2022-11-07T21:31:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:31:45+00:00</t>
+    <t>2022-11-08T20:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T12:45:51+00:00</t>
+    <t>2022-11-11T12:48:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T12:48:43+00:00</t>
+    <t>2022-11-11T13:10:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLAdministrableProductDefinition</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLAdministrableProductDefinition</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T13:10:08+00:00</t>
+    <t>2022-11-11T15:50:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Kind</t>
@@ -281,7 +281,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -371,7 +371,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -394,17 +394,13 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
-</t>
   </si>
   <si>
     <t>N/A</t>
@@ -447,7 +443,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -466,34 +462,40 @@
     <t>An identifier for the administrable product.</t>
   </si>
   <si>
+    <t>PhPID</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.status</t>
+  </si>
+  <si>
+    <t>draft | active | retired | unknown</t>
+  </si>
+  <si>
+    <t>The status of this administrable product. Enables tracking the life-cycle of the content.</t>
+  </si>
+  <si>
+    <t>Allows filtering of administrable products that are appropriate for use versus not.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The lifecycle status of an artifact.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0-ballot</t>
+  </si>
+  <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>AdministrableProductDefinition.status</t>
-  </si>
-  <si>
-    <t>draft | active | retired | unknown</t>
-  </si>
-  <si>
-    <t>The status of this administrable product. Enables tracking the life-cycle of the content.</t>
-  </si>
-  <si>
-    <t>Allows filtering of administrable products that are appropriate for use versus not.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The lifecycle status of an artifact.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|4.3.0</t>
-  </si>
-  <si>
     <t>AdministrableProductDefinition.formOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLMedicinalProductDefinition)
+    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLMedicinalProductDefinition)
 </t>
   </si>
   <si>
@@ -602,7 +604,7 @@
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
   </si>
   <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
@@ -778,7 +780,7 @@
     <t>AdministrableProductDefinition.producedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLManufacturedItemDefinition)
+    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLManufacturedItemDefinition)
 </t>
   </si>
   <si>
@@ -836,10 +838,6 @@
   </si>
   <si>
     <t>Characteristics e.g. a product's onset of action.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-</t>
   </si>
   <si>
     <t>Pharmaceutical Product Characteristics</t>
@@ -1469,7 +1467,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="110.58203125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.50390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.76953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -2341,25 +2339,25 @@
         <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>127</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2378,16 +2376,16 @@
         <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2437,7 +2435,7 @@
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -2449,7 +2447,7 @@
         <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>76</v>
@@ -2458,16 +2456,16 @@
         <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2483,22 +2481,22 @@
         <v>84</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>76</v>
@@ -2547,7 +2545,7 @@
         <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2559,7 +2557,7 @@
         <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>76</v>
@@ -2568,12 +2566,12 @@
         <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2596,13 +2594,13 @@
         <v>84</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2653,7 +2651,7 @@
         <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2668,10 +2666,10 @@
         <v>95</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>76</v>
@@ -2776,7 +2774,7 @@
         <v>95</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>76</v>
@@ -2787,7 +2785,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2810,13 +2808,13 @@
         <v>84</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2867,7 +2865,7 @@
         <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>74</v>
@@ -2882,7 +2880,7 @@
         <v>95</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
@@ -2893,7 +2891,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2916,13 +2914,13 @@
         <v>84</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2949,13 +2947,13 @@
         <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>76</v>
@@ -2973,7 +2971,7 @@
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>74</v>
@@ -2988,7 +2986,7 @@
         <v>95</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>76</v>
@@ -2999,7 +2997,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3025,10 +3023,10 @@
         <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3079,7 +3077,7 @@
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>74</v>
@@ -3100,16 +3098,16 @@
         <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3128,16 +3126,16 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K16" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3175,19 +3173,19 @@
         <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>74</v>
@@ -3199,7 +3197,7 @@
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>76</v>
@@ -3208,12 +3206,12 @@
         <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3236,19 +3234,19 @@
         <v>84</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>76</v>
@@ -3297,7 +3295,7 @@
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
@@ -3318,12 +3316,12 @@
         <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3349,10 +3347,10 @@
         <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3403,7 +3401,7 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
@@ -3424,16 +3422,16 @@
         <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3452,16 +3450,16 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K19" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3499,19 +3497,19 @@
         <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
@@ -3523,7 +3521,7 @@
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>76</v>
@@ -3532,12 +3530,12 @@
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3563,16 +3561,16 @@
         <v>97</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>76</v>
@@ -3582,7 +3580,7 @@
         <v>76</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>76</v>
@@ -3621,7 +3619,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -3642,12 +3640,12 @@
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3670,16 +3668,16 @@
         <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3729,7 +3727,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>74</v>
@@ -3750,12 +3748,12 @@
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3781,14 +3779,14 @@
         <v>103</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -3837,7 +3835,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
@@ -3858,12 +3856,12 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3886,17 +3884,17 @@
         <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
@@ -3945,7 +3943,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>74</v>
@@ -3966,12 +3964,12 @@
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3994,19 +3992,19 @@
         <v>84</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>76</v>
@@ -4055,7 +4053,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>74</v>
@@ -4076,12 +4074,12 @@
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4104,19 +4102,19 @@
         <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>76</v>
@@ -4165,7 +4163,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
@@ -4186,12 +4184,12 @@
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4214,13 +4212,13 @@
         <v>84</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4247,13 +4245,13 @@
         <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
@@ -4271,7 +4269,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
@@ -4286,7 +4284,7 @@
         <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
@@ -4297,7 +4295,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4323,10 +4321,10 @@
         <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4377,7 +4375,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>74</v>
@@ -4398,16 +4396,16 @@
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4426,16 +4424,16 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K28" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L28" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4473,19 +4471,19 @@
         <v>76</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>74</v>
@@ -4497,7 +4495,7 @@
         <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>76</v>
@@ -4506,12 +4504,12 @@
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4534,19 +4532,19 @@
         <v>84</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>76</v>
@@ -4595,7 +4593,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
@@ -4616,12 +4614,12 @@
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4647,10 +4645,10 @@
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4701,7 +4699,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
@@ -4722,16 +4720,16 @@
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4750,16 +4748,16 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K31" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L31" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4797,19 +4795,19 @@
         <v>76</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
@@ -4821,7 +4819,7 @@
         <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>76</v>
@@ -4830,12 +4828,12 @@
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4861,16 +4859,16 @@
         <v>97</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>76</v>
@@ -4880,7 +4878,7 @@
         <v>76</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>76</v>
@@ -4919,7 +4917,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
@@ -4940,12 +4938,12 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4968,16 +4966,16 @@
         <v>84</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5027,7 +5025,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
@@ -5048,12 +5046,12 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5079,14 +5077,14 @@
         <v>103</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>76</v>
@@ -5135,7 +5133,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
@@ -5156,12 +5154,12 @@
         <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5184,17 +5182,17 @@
         <v>84</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -5243,7 +5241,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
@@ -5264,12 +5262,12 @@
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5292,19 +5290,19 @@
         <v>84</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -5353,7 +5351,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
@@ -5374,12 +5372,12 @@
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5402,19 +5400,19 @@
         <v>84</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
@@ -5463,7 +5461,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
@@ -5484,12 +5482,12 @@
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5512,13 +5510,13 @@
         <v>84</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5569,7 +5567,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -5584,7 +5582,7 @@
         <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
@@ -5595,7 +5593,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5618,13 +5616,13 @@
         <v>84</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5651,13 +5649,13 @@
         <v>76</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>76</v>
@@ -5675,7 +5673,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -5690,7 +5688,7 @@
         <v>95</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>76</v>
@@ -5701,7 +5699,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5724,13 +5722,13 @@
         <v>84</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5781,7 +5779,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
@@ -5796,7 +5794,7 @@
         <v>95</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
@@ -5807,7 +5805,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5830,13 +5828,13 @@
         <v>84</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5887,7 +5885,7 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
@@ -5899,7 +5897,7 @@
         <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>266</v>
+        <v>95</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>267</v>
@@ -5936,13 +5934,13 @@
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5993,7 +5991,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
@@ -6014,7 +6012,7 @@
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43">
@@ -6023,7 +6021,7 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6042,16 +6040,16 @@
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K43" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L43" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6101,7 +6099,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>74</v>
@@ -6113,7 +6111,7 @@
         <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>76</v>
@@ -6122,7 +6120,7 @@
         <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44">
@@ -6150,7 +6148,7 @@
         <v>84</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>272</v>
@@ -6159,10 +6157,10 @@
         <v>273</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -6223,7 +6221,7 @@
         <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>76</v>
@@ -6232,7 +6230,7 @@
         <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45">
@@ -6260,7 +6258,7 @@
         <v>84</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>276</v>
@@ -6293,7 +6291,7 @@
         <v>76</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="X45" t="s" s="2">
         <v>278</v>
@@ -6472,7 +6470,7 @@
         <v>84</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>287</v>
@@ -6578,7 +6576,7 @@
         <v>84</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>291</v>
@@ -6647,7 +6645,7 @@
         <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>266</v>
+        <v>95</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>293</v>
@@ -6684,13 +6682,13 @@
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6741,7 +6739,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -6762,7 +6760,7 @@
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50">
@@ -6771,7 +6769,7 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6790,16 +6788,16 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K50" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L50" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -6849,7 +6847,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
@@ -6861,7 +6859,7 @@
         <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>76</v>
@@ -6870,7 +6868,7 @@
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51">
@@ -6898,7 +6896,7 @@
         <v>84</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>272</v>
@@ -6907,10 +6905,10 @@
         <v>273</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>76</v>
@@ -6971,7 +6969,7 @@
         <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>76</v>
@@ -6980,7 +6978,7 @@
         <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52">
@@ -7008,7 +7006,7 @@
         <v>84</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>298</v>
@@ -7041,7 +7039,7 @@
         <v>76</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="X52" t="s" s="2">
         <v>300</v>
@@ -7117,10 +7115,10 @@
         <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7171,7 +7169,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
@@ -7192,7 +7190,7 @@
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54">
@@ -7201,7 +7199,7 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7220,16 +7218,16 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K54" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L54" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7267,19 +7265,19 @@
         <v>76</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
@@ -7291,7 +7289,7 @@
         <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>76</v>
@@ -7300,7 +7298,7 @@
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55">
@@ -7328,19 +7326,19 @@
         <v>84</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
@@ -7389,7 +7387,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -7410,7 +7408,7 @@
         <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56">
@@ -7441,10 +7439,10 @@
         <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7495,7 +7493,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -7516,7 +7514,7 @@
         <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57">
@@ -7525,7 +7523,7 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7544,16 +7542,16 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K57" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L57" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7591,19 +7589,19 @@
         <v>76</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -7615,7 +7613,7 @@
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>76</v>
@@ -7624,7 +7622,7 @@
         <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58">
@@ -7655,16 +7653,16 @@
         <v>97</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>76</v>
@@ -7713,7 +7711,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
@@ -7734,7 +7732,7 @@
         <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59">
@@ -7762,16 +7760,16 @@
         <v>84</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -7821,7 +7819,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -7842,7 +7840,7 @@
         <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60">
@@ -7873,14 +7871,14 @@
         <v>103</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
@@ -7929,7 +7927,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -7950,7 +7948,7 @@
         <v>76</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61">
@@ -7978,17 +7976,17 @@
         <v>84</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>76</v>
@@ -8037,7 +8035,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
@@ -8058,7 +8056,7 @@
         <v>76</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62">
@@ -8086,19 +8084,19 @@
         <v>84</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>76</v>
@@ -8147,7 +8145,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
@@ -8168,7 +8166,7 @@
         <v>76</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63">
@@ -8196,19 +8194,19 @@
         <v>84</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>76</v>
@@ -8257,7 +8255,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
@@ -8278,7 +8276,7 @@
         <v>76</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64">
@@ -8836,7 +8834,7 @@
         <v>84</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>339</v>
@@ -8905,10 +8903,10 @@
         <v>76</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>266</v>
+        <v>95</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>76</v>
@@ -8942,13 +8940,13 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8999,7 +8997,7 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>74</v>
@@ -9020,7 +9018,7 @@
         <v>76</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71">
@@ -9029,7 +9027,7 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9048,16 +9046,16 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K71" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L71" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9107,7 +9105,7 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>74</v>
@@ -9119,7 +9117,7 @@
         <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>76</v>
@@ -9128,7 +9126,7 @@
         <v>76</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72">
@@ -9156,7 +9154,7 @@
         <v>84</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>272</v>
@@ -9165,10 +9163,10 @@
         <v>273</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>76</v>
@@ -9229,7 +9227,7 @@
         <v>76</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>76</v>
@@ -9238,7 +9236,7 @@
         <v>76</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73">
@@ -9266,7 +9264,7 @@
         <v>84</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>345</v>
@@ -9299,7 +9297,7 @@
         <v>76</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="X73" t="s" s="2">
         <v>347</v>
@@ -9338,7 +9336,7 @@
         <v>95</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>76</v>
@@ -9372,7 +9370,7 @@
         <v>84</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>350</v>
@@ -9441,10 +9439,10 @@
         <v>76</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>266</v>
+        <v>95</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>76</v>
@@ -9478,13 +9476,13 @@
         <v>76</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9535,7 +9533,7 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>74</v>
@@ -9556,7 +9554,7 @@
         <v>76</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76">
@@ -9565,7 +9563,7 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -9584,16 +9582,16 @@
         <v>76</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K76" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L76" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -9643,7 +9641,7 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>74</v>
@@ -9655,7 +9653,7 @@
         <v>76</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>76</v>
@@ -9664,7 +9662,7 @@
         <v>76</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77">
@@ -9692,7 +9690,7 @@
         <v>84</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>272</v>
@@ -9701,10 +9699,10 @@
         <v>273</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>76</v>
@@ -9765,7 +9763,7 @@
         <v>76</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>76</v>
@@ -9774,7 +9772,7 @@
         <v>76</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78">
@@ -9802,7 +9800,7 @@
         <v>84</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>356</v>
@@ -9835,7 +9833,7 @@
         <v>76</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="X78" t="s" s="2">
         <v>347</v>
@@ -9874,7 +9872,7 @@
         <v>95</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>76</v>
@@ -9980,7 +9978,7 @@
         <v>95</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>76</v>
@@ -10014,7 +10012,7 @@
         <v>84</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>363</v>
@@ -10086,7 +10084,7 @@
         <v>95</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLAdministrableProductDefinition</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLAdministrableProductDefinition</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T20:48:35+00:00</t>
+    <t>2022-11-12T19:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>4.3.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -281,7 +281,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -371,7 +371,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -394,13 +394,17 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
+</t>
   </si>
   <si>
     <t>N/A</t>
@@ -443,7 +447,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -462,10 +466,7 @@
     <t>An identifier for the administrable product.</t>
   </si>
   <si>
-    <t>PhPID</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
+    <t>n/a</t>
   </si>
   <si>
     <t>AdministrableProductDefinition.status</t>
@@ -486,16 +487,13 @@
     <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0-ballot</t>
-  </si>
-  <si>
-    <t>n/a</t>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.3.0</t>
   </si>
   <si>
     <t>AdministrableProductDefinition.formOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLMedicinalProductDefinition)
+    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLMedicinalProductDefinition)
 </t>
   </si>
   <si>
@@ -604,7 +602,7 @@
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
   </si>
   <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
@@ -780,7 +778,7 @@
     <t>AdministrableProductDefinition.producedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLManufacturedItemDefinition)
+    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLManufacturedItemDefinition)
 </t>
   </si>
   <si>
@@ -838,6 +836,10 @@
   </si>
   <si>
     <t>Characteristics e.g. a product's onset of action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
+</t>
   </si>
   <si>
     <t>Pharmaceutical Product Characteristics</t>
@@ -1467,7 +1469,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="110.58203125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.76953125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.50390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -2339,7 +2341,7 @@
         <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>76</v>
@@ -2348,16 +2350,16 @@
         <v>76</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2376,16 +2378,16 @@
         <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2435,7 +2437,7 @@
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -2447,7 +2449,7 @@
         <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>76</v>
@@ -2456,16 +2458,16 @@
         <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2481,22 +2483,22 @@
         <v>84</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>76</v>
@@ -2545,7 +2547,7 @@
         <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2557,7 +2559,7 @@
         <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>76</v>
@@ -2566,12 +2568,12 @@
         <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2594,13 +2596,13 @@
         <v>84</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2651,7 +2653,7 @@
         <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2666,10 +2668,10 @@
         <v>95</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>76</v>
@@ -2774,7 +2776,7 @@
         <v>95</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>76</v>
@@ -2785,7 +2787,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2808,13 +2810,13 @@
         <v>84</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2865,7 +2867,7 @@
         <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>74</v>
@@ -2880,7 +2882,7 @@
         <v>95</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
@@ -2891,7 +2893,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2914,13 +2916,13 @@
         <v>84</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2947,14 +2949,14 @@
         <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>76</v>
       </c>
@@ -2971,7 +2973,7 @@
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>74</v>
@@ -2986,7 +2988,7 @@
         <v>95</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>76</v>
@@ -2997,7 +2999,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3023,10 +3025,10 @@
         <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3077,7 +3079,7 @@
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>74</v>
@@ -3098,16 +3100,16 @@
         <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3126,16 +3128,16 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3173,19 +3175,19 @@
         <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AB16" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AB16" t="s" s="2">
+      <c r="AC16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD16" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AC16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD16" t="s" s="2">
+      <c r="AE16" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>74</v>
@@ -3197,7 +3199,7 @@
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>76</v>
@@ -3206,12 +3208,12 @@
         <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3234,19 +3236,19 @@
         <v>84</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>76</v>
@@ -3295,7 +3297,7 @@
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
@@ -3316,12 +3318,12 @@
         <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3347,10 +3349,10 @@
         <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3401,7 +3403,7 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
@@ -3422,16 +3424,16 @@
         <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3450,16 +3452,16 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3497,19 +3499,19 @@
         <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AB19" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AB19" t="s" s="2">
+      <c r="AC19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD19" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AC19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD19" t="s" s="2">
+      <c r="AE19" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
@@ -3521,7 +3523,7 @@
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>76</v>
@@ -3530,12 +3532,12 @@
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3561,16 +3563,16 @@
         <v>97</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>76</v>
@@ -3580,46 +3582,46 @@
         <v>76</v>
       </c>
       <c r="R20" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -3640,12 +3642,12 @@
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3668,16 +3670,16 @@
         <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3727,7 +3729,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>74</v>
@@ -3748,12 +3750,12 @@
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3779,14 +3781,14 @@
         <v>103</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -3835,7 +3837,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
@@ -3856,12 +3858,12 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3884,17 +3886,17 @@
         <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
@@ -3943,7 +3945,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>74</v>
@@ -3964,12 +3966,12 @@
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3992,19 +3994,19 @@
         <v>84</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>76</v>
@@ -4053,7 +4055,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>74</v>
@@ -4074,12 +4076,12 @@
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4102,19 +4104,19 @@
         <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>76</v>
@@ -4163,7 +4165,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
@@ -4184,12 +4186,12 @@
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4212,13 +4214,13 @@
         <v>84</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4245,14 +4247,14 @@
         <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>233</v>
-      </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4269,7 +4271,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
@@ -4284,7 +4286,7 @@
         <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
@@ -4295,7 +4297,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4321,10 +4323,10 @@
         <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4375,7 +4377,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>74</v>
@@ -4396,16 +4398,16 @@
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4424,16 +4426,16 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4471,19 +4473,19 @@
         <v>76</v>
       </c>
       <c r="AA28" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AB28" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AB28" t="s" s="2">
+      <c r="AC28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD28" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AC28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD28" t="s" s="2">
+      <c r="AE28" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>74</v>
@@ -4495,7 +4497,7 @@
         <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>76</v>
@@ -4504,12 +4506,12 @@
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4532,19 +4534,19 @@
         <v>84</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>76</v>
@@ -4593,7 +4595,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
@@ -4614,12 +4616,12 @@
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4645,10 +4647,10 @@
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4699,7 +4701,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
@@ -4720,16 +4722,16 @@
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4748,16 +4750,16 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4795,19 +4797,19 @@
         <v>76</v>
       </c>
       <c r="AA31" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AB31" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AB31" t="s" s="2">
+      <c r="AC31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD31" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AC31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD31" t="s" s="2">
+      <c r="AE31" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
@@ -4819,7 +4821,7 @@
         <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>76</v>
@@ -4828,12 +4830,12 @@
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4859,16 +4861,16 @@
         <v>97</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>76</v>
@@ -4878,7 +4880,7 @@
         <v>76</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>76</v>
@@ -4917,7 +4919,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
@@ -4938,12 +4940,12 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4966,16 +4968,16 @@
         <v>84</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5025,7 +5027,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
@@ -5046,12 +5048,12 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5077,14 +5079,14 @@
         <v>103</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>76</v>
@@ -5133,7 +5135,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
@@ -5154,12 +5156,12 @@
         <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5182,17 +5184,17 @@
         <v>84</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -5241,7 +5243,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
@@ -5262,12 +5264,12 @@
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5290,19 +5292,19 @@
         <v>84</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -5351,7 +5353,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
@@ -5372,12 +5374,12 @@
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5400,19 +5402,19 @@
         <v>84</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
@@ -5461,7 +5463,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
@@ -5482,12 +5484,12 @@
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5510,13 +5512,13 @@
         <v>84</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5567,7 +5569,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -5582,7 +5584,7 @@
         <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
@@ -5593,7 +5595,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5616,13 +5618,13 @@
         <v>84</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5649,14 +5651,14 @@
         <v>76</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="Y39" t="s" s="2">
-        <v>256</v>
-      </c>
       <c r="Z39" t="s" s="2">
         <v>76</v>
       </c>
@@ -5673,7 +5675,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -5688,7 +5690,7 @@
         <v>95</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>76</v>
@@ -5699,7 +5701,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5722,13 +5724,13 @@
         <v>84</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5779,7 +5781,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
@@ -5794,7 +5796,7 @@
         <v>95</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
@@ -5805,7 +5807,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5828,13 +5830,13 @@
         <v>84</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5885,7 +5887,7 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
@@ -5897,7 +5899,7 @@
         <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>95</v>
+        <v>266</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>267</v>
@@ -5934,13 +5936,13 @@
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5991,7 +5993,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
@@ -6012,7 +6014,7 @@
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43">
@@ -6021,7 +6023,7 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6040,16 +6042,16 @@
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6099,7 +6101,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>74</v>
@@ -6111,7 +6113,7 @@
         <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>76</v>
@@ -6120,7 +6122,7 @@
         <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44">
@@ -6148,7 +6150,7 @@
         <v>84</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>272</v>
@@ -6157,10 +6159,10 @@
         <v>273</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -6221,7 +6223,7 @@
         <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>76</v>
@@ -6230,7 +6232,7 @@
         <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
@@ -6258,7 +6260,7 @@
         <v>84</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>276</v>
@@ -6291,7 +6293,7 @@
         <v>76</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X45" t="s" s="2">
         <v>278</v>
@@ -6470,7 +6472,7 @@
         <v>84</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>287</v>
@@ -6576,7 +6578,7 @@
         <v>84</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>291</v>
@@ -6645,7 +6647,7 @@
         <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>95</v>
+        <v>266</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>293</v>
@@ -6682,13 +6684,13 @@
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6739,7 +6741,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -6760,7 +6762,7 @@
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50">
@@ -6769,7 +6771,7 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6788,16 +6790,16 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -6847,7 +6849,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
@@ -6859,7 +6861,7 @@
         <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>76</v>
@@ -6868,7 +6870,7 @@
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51">
@@ -6896,7 +6898,7 @@
         <v>84</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>272</v>
@@ -6905,10 +6907,10 @@
         <v>273</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>76</v>
@@ -6969,7 +6971,7 @@
         <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>76</v>
@@ -6978,7 +6980,7 @@
         <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52">
@@ -7006,7 +7008,7 @@
         <v>84</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>298</v>
@@ -7039,7 +7041,7 @@
         <v>76</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X52" t="s" s="2">
         <v>300</v>
@@ -7115,10 +7117,10 @@
         <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7169,7 +7171,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
@@ -7190,7 +7192,7 @@
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54">
@@ -7199,7 +7201,7 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7218,16 +7220,16 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7265,19 +7267,19 @@
         <v>76</v>
       </c>
       <c r="AA54" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AB54" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AB54" t="s" s="2">
+      <c r="AC54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD54" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AC54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD54" t="s" s="2">
+      <c r="AE54" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
@@ -7289,7 +7291,7 @@
         <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>76</v>
@@ -7298,7 +7300,7 @@
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55">
@@ -7326,19 +7328,19 @@
         <v>84</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
@@ -7387,7 +7389,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -7408,7 +7410,7 @@
         <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56">
@@ -7439,10 +7441,10 @@
         <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7493,7 +7495,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -7514,7 +7516,7 @@
         <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57">
@@ -7523,7 +7525,7 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7542,16 +7544,16 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7589,19 +7591,19 @@
         <v>76</v>
       </c>
       <c r="AA57" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AB57" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AB57" t="s" s="2">
+      <c r="AC57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD57" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AC57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD57" t="s" s="2">
+      <c r="AE57" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -7613,7 +7615,7 @@
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>76</v>
@@ -7622,7 +7624,7 @@
         <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58">
@@ -7653,16 +7655,16 @@
         <v>97</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>76</v>
@@ -7711,7 +7713,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
@@ -7732,7 +7734,7 @@
         <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59">
@@ -7760,16 +7762,16 @@
         <v>84</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -7819,7 +7821,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -7840,7 +7842,7 @@
         <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60">
@@ -7871,14 +7873,14 @@
         <v>103</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
@@ -7927,7 +7929,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -7948,7 +7950,7 @@
         <v>76</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="61">
@@ -7976,17 +7978,17 @@
         <v>84</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>76</v>
@@ -8035,7 +8037,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
@@ -8056,7 +8058,7 @@
         <v>76</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62">
@@ -8084,19 +8086,19 @@
         <v>84</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>76</v>
@@ -8145,7 +8147,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
@@ -8166,7 +8168,7 @@
         <v>76</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63">
@@ -8194,19 +8196,19 @@
         <v>84</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>76</v>
@@ -8255,7 +8257,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
@@ -8276,7 +8278,7 @@
         <v>76</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64">
@@ -8834,7 +8836,7 @@
         <v>84</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>339</v>
@@ -8903,10 +8905,10 @@
         <v>76</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>95</v>
+        <v>266</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>76</v>
@@ -8940,13 +8942,13 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8997,7 +8999,7 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>74</v>
@@ -9018,7 +9020,7 @@
         <v>76</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71">
@@ -9027,7 +9029,7 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9046,16 +9048,16 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9105,7 +9107,7 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>74</v>
@@ -9117,7 +9119,7 @@
         <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>76</v>
@@ -9126,7 +9128,7 @@
         <v>76</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72">
@@ -9154,7 +9156,7 @@
         <v>84</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>272</v>
@@ -9163,10 +9165,10 @@
         <v>273</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>76</v>
@@ -9227,7 +9229,7 @@
         <v>76</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>76</v>
@@ -9236,7 +9238,7 @@
         <v>76</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73">
@@ -9264,7 +9266,7 @@
         <v>84</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>345</v>
@@ -9297,7 +9299,7 @@
         <v>76</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X73" t="s" s="2">
         <v>347</v>
@@ -9336,7 +9338,7 @@
         <v>95</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>76</v>
@@ -9370,7 +9372,7 @@
         <v>84</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>350</v>
@@ -9439,10 +9441,10 @@
         <v>76</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>95</v>
+        <v>266</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>76</v>
@@ -9476,13 +9478,13 @@
         <v>76</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9533,7 +9535,7 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>74</v>
@@ -9554,7 +9556,7 @@
         <v>76</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76">
@@ -9563,7 +9565,7 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -9582,16 +9584,16 @@
         <v>76</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -9641,7 +9643,7 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>74</v>
@@ -9653,7 +9655,7 @@
         <v>76</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>76</v>
@@ -9662,7 +9664,7 @@
         <v>76</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77">
@@ -9690,7 +9692,7 @@
         <v>84</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>272</v>
@@ -9699,10 +9701,10 @@
         <v>273</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>76</v>
@@ -9763,7 +9765,7 @@
         <v>76</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>76</v>
@@ -9772,7 +9774,7 @@
         <v>76</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78">
@@ -9800,7 +9802,7 @@
         <v>84</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>356</v>
@@ -9833,7 +9835,7 @@
         <v>76</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X78" t="s" s="2">
         <v>347</v>
@@ -9872,7 +9874,7 @@
         <v>95</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>76</v>
@@ -9978,7 +9980,7 @@
         <v>95</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>76</v>
@@ -10012,7 +10014,7 @@
         <v>84</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>363</v>
@@ -10084,7 +10086,7 @@
         <v>95</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T19:50:48+00:00</t>
+    <t>2022-11-12T20:00:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLAdministrableProductDefinition</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLAdministrableProductDefinition</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T20:00:33+00:00</t>
+    <t>2022-11-14T19:25:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Kind</t>
@@ -281,7 +281,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -371,7 +371,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -394,17 +394,13 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
-</t>
   </si>
   <si>
     <t>N/A</t>
@@ -447,7 +443,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -466,34 +462,40 @@
     <t>An identifier for the administrable product.</t>
   </si>
   <si>
+    <t>PhPID</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.status</t>
+  </si>
+  <si>
+    <t>draft | active | retired | unknown</t>
+  </si>
+  <si>
+    <t>The status of this administrable product. Enables tracking the life-cycle of the content.</t>
+  </si>
+  <si>
+    <t>Allows filtering of administrable products that are appropriate for use versus not.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The lifecycle status of an artifact.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0-ballot</t>
+  </si>
+  <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>AdministrableProductDefinition.status</t>
-  </si>
-  <si>
-    <t>draft | active | retired | unknown</t>
-  </si>
-  <si>
-    <t>The status of this administrable product. Enables tracking the life-cycle of the content.</t>
-  </si>
-  <si>
-    <t>Allows filtering of administrable products that are appropriate for use versus not.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The lifecycle status of an artifact.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|4.3.0</t>
-  </si>
-  <si>
     <t>AdministrableProductDefinition.formOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLMedicinalProductDefinition)
+    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLMedicinalProductDefinition)
 </t>
   </si>
   <si>
@@ -602,7 +604,7 @@
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
   </si>
   <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
@@ -778,7 +780,7 @@
     <t>AdministrableProductDefinition.producedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLManufacturedItemDefinition)
+    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLManufacturedItemDefinition)
 </t>
   </si>
   <si>
@@ -836,10 +838,6 @@
   </si>
   <si>
     <t>Characteristics e.g. a product's onset of action.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-</t>
   </si>
   <si>
     <t>Pharmaceutical Product Characteristics</t>
@@ -1469,7 +1467,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="110.58203125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.50390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.76953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -2341,25 +2339,25 @@
         <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>127</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2378,16 +2376,16 @@
         <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2437,7 +2435,7 @@
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -2449,7 +2447,7 @@
         <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>76</v>
@@ -2458,16 +2456,16 @@
         <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2483,22 +2481,22 @@
         <v>84</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>76</v>
@@ -2547,7 +2545,7 @@
         <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2559,7 +2557,7 @@
         <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>76</v>
@@ -2568,12 +2566,12 @@
         <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2596,13 +2594,13 @@
         <v>84</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2653,7 +2651,7 @@
         <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2668,10 +2666,10 @@
         <v>95</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>76</v>
@@ -2776,7 +2774,7 @@
         <v>95</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>76</v>
@@ -2787,7 +2785,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2810,13 +2808,13 @@
         <v>84</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2867,7 +2865,7 @@
         <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>74</v>
@@ -2882,7 +2880,7 @@
         <v>95</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
@@ -2893,7 +2891,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2916,13 +2914,13 @@
         <v>84</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2949,13 +2947,13 @@
         <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>76</v>
@@ -2973,7 +2971,7 @@
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>74</v>
@@ -2988,7 +2986,7 @@
         <v>95</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>76</v>
@@ -2999,7 +2997,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3025,10 +3023,10 @@
         <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3079,7 +3077,7 @@
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>74</v>
@@ -3100,16 +3098,16 @@
         <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3128,16 +3126,16 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K16" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3175,19 +3173,19 @@
         <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>74</v>
@@ -3199,7 +3197,7 @@
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>76</v>
@@ -3208,12 +3206,12 @@
         <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3236,19 +3234,19 @@
         <v>84</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>76</v>
@@ -3297,7 +3295,7 @@
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
@@ -3318,12 +3316,12 @@
         <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3349,10 +3347,10 @@
         <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3403,7 +3401,7 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
@@ -3424,16 +3422,16 @@
         <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3452,16 +3450,16 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K19" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3499,19 +3497,19 @@
         <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
@@ -3523,7 +3521,7 @@
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>76</v>
@@ -3532,12 +3530,12 @@
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3563,16 +3561,16 @@
         <v>97</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>76</v>
@@ -3582,7 +3580,7 @@
         <v>76</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>76</v>
@@ -3621,7 +3619,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -3642,12 +3640,12 @@
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3670,16 +3668,16 @@
         <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3729,7 +3727,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>74</v>
@@ -3750,12 +3748,12 @@
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3781,14 +3779,14 @@
         <v>103</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -3837,7 +3835,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
@@ -3858,12 +3856,12 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3886,17 +3884,17 @@
         <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
@@ -3945,7 +3943,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>74</v>
@@ -3966,12 +3964,12 @@
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3994,19 +3992,19 @@
         <v>84</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>76</v>
@@ -4055,7 +4053,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>74</v>
@@ -4076,12 +4074,12 @@
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4104,19 +4102,19 @@
         <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>76</v>
@@ -4165,7 +4163,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
@@ -4186,12 +4184,12 @@
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4214,13 +4212,13 @@
         <v>84</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4247,13 +4245,13 @@
         <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
@@ -4271,7 +4269,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
@@ -4286,7 +4284,7 @@
         <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
@@ -4297,7 +4295,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4323,10 +4321,10 @@
         <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4377,7 +4375,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>74</v>
@@ -4398,16 +4396,16 @@
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4426,16 +4424,16 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K28" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L28" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4473,19 +4471,19 @@
         <v>76</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>74</v>
@@ -4497,7 +4495,7 @@
         <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>76</v>
@@ -4506,12 +4504,12 @@
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4534,19 +4532,19 @@
         <v>84</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>76</v>
@@ -4595,7 +4593,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
@@ -4616,12 +4614,12 @@
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4647,10 +4645,10 @@
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4701,7 +4699,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
@@ -4722,16 +4720,16 @@
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4750,16 +4748,16 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K31" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L31" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4797,19 +4795,19 @@
         <v>76</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
@@ -4821,7 +4819,7 @@
         <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>76</v>
@@ -4830,12 +4828,12 @@
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4861,16 +4859,16 @@
         <v>97</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>76</v>
@@ -4880,7 +4878,7 @@
         <v>76</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>76</v>
@@ -4919,7 +4917,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
@@ -4940,12 +4938,12 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4968,16 +4966,16 @@
         <v>84</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5027,7 +5025,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
@@ -5048,12 +5046,12 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5079,14 +5077,14 @@
         <v>103</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>76</v>
@@ -5135,7 +5133,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
@@ -5156,12 +5154,12 @@
         <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5184,17 +5182,17 @@
         <v>84</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -5243,7 +5241,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
@@ -5264,12 +5262,12 @@
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5292,19 +5290,19 @@
         <v>84</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -5353,7 +5351,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
@@ -5374,12 +5372,12 @@
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5402,19 +5400,19 @@
         <v>84</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
@@ -5463,7 +5461,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
@@ -5484,12 +5482,12 @@
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5512,13 +5510,13 @@
         <v>84</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5569,7 +5567,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -5584,7 +5582,7 @@
         <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
@@ -5595,7 +5593,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5618,13 +5616,13 @@
         <v>84</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5651,13 +5649,13 @@
         <v>76</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>76</v>
@@ -5675,7 +5673,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -5690,7 +5688,7 @@
         <v>95</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>76</v>
@@ -5701,7 +5699,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5724,13 +5722,13 @@
         <v>84</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5781,7 +5779,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
@@ -5796,7 +5794,7 @@
         <v>95</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
@@ -5807,7 +5805,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5830,13 +5828,13 @@
         <v>84</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5887,7 +5885,7 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
@@ -5899,7 +5897,7 @@
         <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>266</v>
+        <v>95</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>267</v>
@@ -5936,13 +5934,13 @@
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5993,7 +5991,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
@@ -6014,7 +6012,7 @@
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43">
@@ -6023,7 +6021,7 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6042,16 +6040,16 @@
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K43" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L43" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6101,7 +6099,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>74</v>
@@ -6113,7 +6111,7 @@
         <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>76</v>
@@ -6122,7 +6120,7 @@
         <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44">
@@ -6150,7 +6148,7 @@
         <v>84</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>272</v>
@@ -6159,10 +6157,10 @@
         <v>273</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -6223,7 +6221,7 @@
         <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>76</v>
@@ -6232,7 +6230,7 @@
         <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45">
@@ -6260,7 +6258,7 @@
         <v>84</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>276</v>
@@ -6293,7 +6291,7 @@
         <v>76</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="X45" t="s" s="2">
         <v>278</v>
@@ -6472,7 +6470,7 @@
         <v>84</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>287</v>
@@ -6578,7 +6576,7 @@
         <v>84</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>291</v>
@@ -6647,7 +6645,7 @@
         <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>266</v>
+        <v>95</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>293</v>
@@ -6684,13 +6682,13 @@
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6741,7 +6739,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -6762,7 +6760,7 @@
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50">
@@ -6771,7 +6769,7 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6790,16 +6788,16 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K50" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L50" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -6849,7 +6847,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
@@ -6861,7 +6859,7 @@
         <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>76</v>
@@ -6870,7 +6868,7 @@
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51">
@@ -6898,7 +6896,7 @@
         <v>84</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>272</v>
@@ -6907,10 +6905,10 @@
         <v>273</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>76</v>
@@ -6971,7 +6969,7 @@
         <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>76</v>
@@ -6980,7 +6978,7 @@
         <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52">
@@ -7008,7 +7006,7 @@
         <v>84</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>298</v>
@@ -7041,7 +7039,7 @@
         <v>76</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="X52" t="s" s="2">
         <v>300</v>
@@ -7117,10 +7115,10 @@
         <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7171,7 +7169,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
@@ -7192,7 +7190,7 @@
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54">
@@ -7201,7 +7199,7 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7220,16 +7218,16 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K54" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L54" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7267,19 +7265,19 @@
         <v>76</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
@@ -7291,7 +7289,7 @@
         <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>76</v>
@@ -7300,7 +7298,7 @@
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55">
@@ -7328,19 +7326,19 @@
         <v>84</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
@@ -7389,7 +7387,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -7410,7 +7408,7 @@
         <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56">
@@ -7441,10 +7439,10 @@
         <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7495,7 +7493,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -7516,7 +7514,7 @@
         <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57">
@@ -7525,7 +7523,7 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7544,16 +7542,16 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K57" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L57" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7591,19 +7589,19 @@
         <v>76</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -7615,7 +7613,7 @@
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>76</v>
@@ -7624,7 +7622,7 @@
         <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58">
@@ -7655,16 +7653,16 @@
         <v>97</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>76</v>
@@ -7713,7 +7711,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
@@ -7734,7 +7732,7 @@
         <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59">
@@ -7762,16 +7760,16 @@
         <v>84</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -7821,7 +7819,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -7842,7 +7840,7 @@
         <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60">
@@ -7873,14 +7871,14 @@
         <v>103</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
@@ -7929,7 +7927,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -7950,7 +7948,7 @@
         <v>76</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61">
@@ -7978,17 +7976,17 @@
         <v>84</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>76</v>
@@ -8037,7 +8035,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
@@ -8058,7 +8056,7 @@
         <v>76</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62">
@@ -8086,19 +8084,19 @@
         <v>84</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>76</v>
@@ -8147,7 +8145,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
@@ -8168,7 +8166,7 @@
         <v>76</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63">
@@ -8196,19 +8194,19 @@
         <v>84</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>76</v>
@@ -8257,7 +8255,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
@@ -8278,7 +8276,7 @@
         <v>76</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64">
@@ -8836,7 +8834,7 @@
         <v>84</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>339</v>
@@ -8905,10 +8903,10 @@
         <v>76</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>266</v>
+        <v>95</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>76</v>
@@ -8942,13 +8940,13 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8999,7 +8997,7 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>74</v>
@@ -9020,7 +9018,7 @@
         <v>76</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71">
@@ -9029,7 +9027,7 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9048,16 +9046,16 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K71" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L71" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9107,7 +9105,7 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>74</v>
@@ -9119,7 +9117,7 @@
         <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>76</v>
@@ -9128,7 +9126,7 @@
         <v>76</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72">
@@ -9156,7 +9154,7 @@
         <v>84</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>272</v>
@@ -9165,10 +9163,10 @@
         <v>273</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>76</v>
@@ -9229,7 +9227,7 @@
         <v>76</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>76</v>
@@ -9238,7 +9236,7 @@
         <v>76</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73">
@@ -9266,7 +9264,7 @@
         <v>84</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>345</v>
@@ -9299,7 +9297,7 @@
         <v>76</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="X73" t="s" s="2">
         <v>347</v>
@@ -9338,7 +9336,7 @@
         <v>95</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>76</v>
@@ -9372,7 +9370,7 @@
         <v>84</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>350</v>
@@ -9441,10 +9439,10 @@
         <v>76</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>266</v>
+        <v>95</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>76</v>
@@ -9478,13 +9476,13 @@
         <v>76</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9535,7 +9533,7 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>74</v>
@@ -9556,7 +9554,7 @@
         <v>76</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76">
@@ -9565,7 +9563,7 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -9584,16 +9582,16 @@
         <v>76</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K76" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L76" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -9643,7 +9641,7 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>74</v>
@@ -9655,7 +9653,7 @@
         <v>76</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>76</v>
@@ -9664,7 +9662,7 @@
         <v>76</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77">
@@ -9692,7 +9690,7 @@
         <v>84</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>272</v>
@@ -9701,10 +9699,10 @@
         <v>273</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>76</v>
@@ -9765,7 +9763,7 @@
         <v>76</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>76</v>
@@ -9774,7 +9772,7 @@
         <v>76</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78">
@@ -9802,7 +9800,7 @@
         <v>84</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>356</v>
@@ -9835,7 +9833,7 @@
         <v>76</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="X78" t="s" s="2">
         <v>347</v>
@@ -9874,7 +9872,7 @@
         <v>95</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>76</v>
@@ -9980,7 +9978,7 @@
         <v>95</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>76</v>
@@ -10014,7 +10012,7 @@
         <v>84</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>363</v>
@@ -10086,7 +10084,7 @@
         <v>95</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLAdministrableProductDefinition</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLAdministrableProductDefinition</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:25:53+00:00</t>
+    <t>2022-11-16T21:11:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>4.3.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -281,7 +281,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -371,7 +371,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -394,13 +394,17 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
+</t>
   </si>
   <si>
     <t>N/A</t>
@@ -443,7 +447,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -462,10 +466,7 @@
     <t>An identifier for the administrable product.</t>
   </si>
   <si>
-    <t>PhPID</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
+    <t>n/a</t>
   </si>
   <si>
     <t>AdministrableProductDefinition.status</t>
@@ -486,16 +487,13 @@
     <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0-ballot</t>
-  </si>
-  <si>
-    <t>n/a</t>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.3.0</t>
   </si>
   <si>
     <t>AdministrableProductDefinition.formOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLMedicinalProductDefinition)
+    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLMedicinalProductDefinition)
 </t>
   </si>
   <si>
@@ -604,7 +602,7 @@
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
   </si>
   <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
@@ -780,7 +778,7 @@
     <t>AdministrableProductDefinition.producedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLManufacturedItemDefinition)
+    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLManufacturedItemDefinition)
 </t>
   </si>
   <si>
@@ -838,6 +836,10 @@
   </si>
   <si>
     <t>Characteristics e.g. a product's onset of action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
+</t>
   </si>
   <si>
     <t>Pharmaceutical Product Characteristics</t>
@@ -1467,7 +1469,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="110.58203125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.76953125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.50390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -2339,7 +2341,7 @@
         <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>76</v>
@@ -2348,16 +2350,16 @@
         <v>76</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2376,16 +2378,16 @@
         <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2435,7 +2437,7 @@
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -2447,7 +2449,7 @@
         <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>76</v>
@@ -2456,16 +2458,16 @@
         <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2481,22 +2483,22 @@
         <v>84</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>76</v>
@@ -2545,7 +2547,7 @@
         <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2557,7 +2559,7 @@
         <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>76</v>
@@ -2566,12 +2568,12 @@
         <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2594,13 +2596,13 @@
         <v>84</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2651,7 +2653,7 @@
         <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2666,10 +2668,10 @@
         <v>95</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>76</v>
@@ -2774,7 +2776,7 @@
         <v>95</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>76</v>
@@ -2785,7 +2787,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2808,13 +2810,13 @@
         <v>84</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2865,7 +2867,7 @@
         <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>74</v>
@@ -2880,7 +2882,7 @@
         <v>95</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
@@ -2891,7 +2893,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2914,13 +2916,13 @@
         <v>84</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2947,14 +2949,14 @@
         <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>76</v>
       </c>
@@ -2971,7 +2973,7 @@
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>74</v>
@@ -2986,7 +2988,7 @@
         <v>95</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>76</v>
@@ -2997,7 +2999,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3023,10 +3025,10 @@
         <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3077,7 +3079,7 @@
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>74</v>
@@ -3098,16 +3100,16 @@
         <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3126,16 +3128,16 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3173,19 +3175,19 @@
         <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AB16" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AB16" t="s" s="2">
+      <c r="AC16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD16" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AC16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD16" t="s" s="2">
+      <c r="AE16" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>74</v>
@@ -3197,7 +3199,7 @@
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>76</v>
@@ -3206,12 +3208,12 @@
         <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3234,19 +3236,19 @@
         <v>84</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>76</v>
@@ -3295,7 +3297,7 @@
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
@@ -3316,12 +3318,12 @@
         <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3347,10 +3349,10 @@
         <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3401,7 +3403,7 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
@@ -3422,16 +3424,16 @@
         <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3450,16 +3452,16 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3497,19 +3499,19 @@
         <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AB19" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AB19" t="s" s="2">
+      <c r="AC19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD19" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AC19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD19" t="s" s="2">
+      <c r="AE19" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
@@ -3521,7 +3523,7 @@
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>76</v>
@@ -3530,12 +3532,12 @@
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3561,16 +3563,16 @@
         <v>97</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>76</v>
@@ -3580,46 +3582,46 @@
         <v>76</v>
       </c>
       <c r="R20" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -3640,12 +3642,12 @@
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3668,16 +3670,16 @@
         <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3727,7 +3729,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>74</v>
@@ -3748,12 +3750,12 @@
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3779,14 +3781,14 @@
         <v>103</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -3835,7 +3837,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
@@ -3856,12 +3858,12 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3884,17 +3886,17 @@
         <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
@@ -3943,7 +3945,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>74</v>
@@ -3964,12 +3966,12 @@
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3992,19 +3994,19 @@
         <v>84</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>76</v>
@@ -4053,7 +4055,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>74</v>
@@ -4074,12 +4076,12 @@
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4102,19 +4104,19 @@
         <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>76</v>
@@ -4163,7 +4165,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
@@ -4184,12 +4186,12 @@
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4212,13 +4214,13 @@
         <v>84</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4245,14 +4247,14 @@
         <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>233</v>
-      </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4269,7 +4271,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
@@ -4284,7 +4286,7 @@
         <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
@@ -4295,7 +4297,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4321,10 +4323,10 @@
         <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4375,7 +4377,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>74</v>
@@ -4396,16 +4398,16 @@
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4424,16 +4426,16 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4471,19 +4473,19 @@
         <v>76</v>
       </c>
       <c r="AA28" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AB28" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AB28" t="s" s="2">
+      <c r="AC28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD28" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AC28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD28" t="s" s="2">
+      <c r="AE28" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>74</v>
@@ -4495,7 +4497,7 @@
         <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>76</v>
@@ -4504,12 +4506,12 @@
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4532,19 +4534,19 @@
         <v>84</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>76</v>
@@ -4593,7 +4595,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
@@ -4614,12 +4616,12 @@
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4645,10 +4647,10 @@
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4699,7 +4701,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
@@ -4720,16 +4722,16 @@
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4748,16 +4750,16 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4795,19 +4797,19 @@
         <v>76</v>
       </c>
       <c r="AA31" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AB31" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AB31" t="s" s="2">
+      <c r="AC31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD31" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AC31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD31" t="s" s="2">
+      <c r="AE31" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
@@ -4819,7 +4821,7 @@
         <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>76</v>
@@ -4828,12 +4830,12 @@
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4859,16 +4861,16 @@
         <v>97</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>76</v>
@@ -4878,7 +4880,7 @@
         <v>76</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>76</v>
@@ -4917,7 +4919,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
@@ -4938,12 +4940,12 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4966,16 +4968,16 @@
         <v>84</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5025,7 +5027,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
@@ -5046,12 +5048,12 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5077,14 +5079,14 @@
         <v>103</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>76</v>
@@ -5133,7 +5135,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
@@ -5154,12 +5156,12 @@
         <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5182,17 +5184,17 @@
         <v>84</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -5241,7 +5243,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
@@ -5262,12 +5264,12 @@
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5290,19 +5292,19 @@
         <v>84</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -5351,7 +5353,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
@@ -5372,12 +5374,12 @@
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5400,19 +5402,19 @@
         <v>84</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
@@ -5461,7 +5463,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
@@ -5482,12 +5484,12 @@
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5510,13 +5512,13 @@
         <v>84</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5567,7 +5569,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -5582,7 +5584,7 @@
         <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
@@ -5593,7 +5595,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5616,13 +5618,13 @@
         <v>84</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5649,14 +5651,14 @@
         <v>76</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="Y39" t="s" s="2">
-        <v>256</v>
-      </c>
       <c r="Z39" t="s" s="2">
         <v>76</v>
       </c>
@@ -5673,7 +5675,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -5688,7 +5690,7 @@
         <v>95</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>76</v>
@@ -5699,7 +5701,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5722,13 +5724,13 @@
         <v>84</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5779,7 +5781,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
@@ -5794,7 +5796,7 @@
         <v>95</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
@@ -5805,7 +5807,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5828,13 +5830,13 @@
         <v>84</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5885,7 +5887,7 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
@@ -5897,7 +5899,7 @@
         <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>95</v>
+        <v>266</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>267</v>
@@ -5934,13 +5936,13 @@
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5991,7 +5993,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
@@ -6012,7 +6014,7 @@
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43">
@@ -6021,7 +6023,7 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6040,16 +6042,16 @@
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6099,7 +6101,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>74</v>
@@ -6111,7 +6113,7 @@
         <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>76</v>
@@ -6120,7 +6122,7 @@
         <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44">
@@ -6148,7 +6150,7 @@
         <v>84</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>272</v>
@@ -6157,10 +6159,10 @@
         <v>273</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -6221,7 +6223,7 @@
         <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>76</v>
@@ -6230,7 +6232,7 @@
         <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
@@ -6258,7 +6260,7 @@
         <v>84</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>276</v>
@@ -6291,7 +6293,7 @@
         <v>76</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X45" t="s" s="2">
         <v>278</v>
@@ -6470,7 +6472,7 @@
         <v>84</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>287</v>
@@ -6576,7 +6578,7 @@
         <v>84</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>291</v>
@@ -6645,7 +6647,7 @@
         <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>95</v>
+        <v>266</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>293</v>
@@ -6682,13 +6684,13 @@
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6739,7 +6741,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -6760,7 +6762,7 @@
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50">
@@ -6769,7 +6771,7 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6788,16 +6790,16 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -6847,7 +6849,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
@@ -6859,7 +6861,7 @@
         <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>76</v>
@@ -6868,7 +6870,7 @@
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51">
@@ -6896,7 +6898,7 @@
         <v>84</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>272</v>
@@ -6905,10 +6907,10 @@
         <v>273</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>76</v>
@@ -6969,7 +6971,7 @@
         <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>76</v>
@@ -6978,7 +6980,7 @@
         <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52">
@@ -7006,7 +7008,7 @@
         <v>84</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>298</v>
@@ -7039,7 +7041,7 @@
         <v>76</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X52" t="s" s="2">
         <v>300</v>
@@ -7115,10 +7117,10 @@
         <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7169,7 +7171,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
@@ -7190,7 +7192,7 @@
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54">
@@ -7199,7 +7201,7 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7218,16 +7220,16 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7265,19 +7267,19 @@
         <v>76</v>
       </c>
       <c r="AA54" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AB54" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AB54" t="s" s="2">
+      <c r="AC54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD54" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AC54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD54" t="s" s="2">
+      <c r="AE54" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
@@ -7289,7 +7291,7 @@
         <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>76</v>
@@ -7298,7 +7300,7 @@
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55">
@@ -7326,19 +7328,19 @@
         <v>84</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
@@ -7387,7 +7389,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -7408,7 +7410,7 @@
         <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56">
@@ -7439,10 +7441,10 @@
         <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7493,7 +7495,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -7514,7 +7516,7 @@
         <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57">
@@ -7523,7 +7525,7 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7542,16 +7544,16 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7589,19 +7591,19 @@
         <v>76</v>
       </c>
       <c r="AA57" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AB57" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AB57" t="s" s="2">
+      <c r="AC57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD57" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AC57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD57" t="s" s="2">
+      <c r="AE57" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -7613,7 +7615,7 @@
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>76</v>
@@ -7622,7 +7624,7 @@
         <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58">
@@ -7653,16 +7655,16 @@
         <v>97</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>76</v>
@@ -7711,7 +7713,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
@@ -7732,7 +7734,7 @@
         <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59">
@@ -7760,16 +7762,16 @@
         <v>84</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -7819,7 +7821,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -7840,7 +7842,7 @@
         <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60">
@@ -7871,14 +7873,14 @@
         <v>103</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
@@ -7927,7 +7929,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -7948,7 +7950,7 @@
         <v>76</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="61">
@@ -7976,17 +7978,17 @@
         <v>84</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>76</v>
@@ -8035,7 +8037,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
@@ -8056,7 +8058,7 @@
         <v>76</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62">
@@ -8084,19 +8086,19 @@
         <v>84</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>76</v>
@@ -8145,7 +8147,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
@@ -8166,7 +8168,7 @@
         <v>76</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63">
@@ -8194,19 +8196,19 @@
         <v>84</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>76</v>
@@ -8255,7 +8257,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
@@ -8276,7 +8278,7 @@
         <v>76</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64">
@@ -8834,7 +8836,7 @@
         <v>84</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>339</v>
@@ -8903,10 +8905,10 @@
         <v>76</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>95</v>
+        <v>266</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>76</v>
@@ -8940,13 +8942,13 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8997,7 +8999,7 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>74</v>
@@ -9018,7 +9020,7 @@
         <v>76</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71">
@@ -9027,7 +9029,7 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9046,16 +9048,16 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9105,7 +9107,7 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>74</v>
@@ -9117,7 +9119,7 @@
         <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>76</v>
@@ -9126,7 +9128,7 @@
         <v>76</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72">
@@ -9154,7 +9156,7 @@
         <v>84</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>272</v>
@@ -9163,10 +9165,10 @@
         <v>273</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>76</v>
@@ -9227,7 +9229,7 @@
         <v>76</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>76</v>
@@ -9236,7 +9238,7 @@
         <v>76</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73">
@@ -9264,7 +9266,7 @@
         <v>84</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>345</v>
@@ -9297,7 +9299,7 @@
         <v>76</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X73" t="s" s="2">
         <v>347</v>
@@ -9336,7 +9338,7 @@
         <v>95</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>76</v>
@@ -9370,7 +9372,7 @@
         <v>84</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>350</v>
@@ -9439,10 +9441,10 @@
         <v>76</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>95</v>
+        <v>266</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>76</v>
@@ -9476,13 +9478,13 @@
         <v>76</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9533,7 +9535,7 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>74</v>
@@ -9554,7 +9556,7 @@
         <v>76</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76">
@@ -9563,7 +9565,7 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -9582,16 +9584,16 @@
         <v>76</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -9641,7 +9643,7 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>74</v>
@@ -9653,7 +9655,7 @@
         <v>76</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>76</v>
@@ -9662,7 +9664,7 @@
         <v>76</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77">
@@ -9690,7 +9692,7 @@
         <v>84</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>272</v>
@@ -9699,10 +9701,10 @@
         <v>273</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>76</v>
@@ -9763,7 +9765,7 @@
         <v>76</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>76</v>
@@ -9772,7 +9774,7 @@
         <v>76</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78">
@@ -9800,7 +9802,7 @@
         <v>84</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>356</v>
@@ -9833,7 +9835,7 @@
         <v>76</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X78" t="s" s="2">
         <v>347</v>
@@ -9872,7 +9874,7 @@
         <v>95</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>76</v>
@@ -9978,7 +9980,7 @@
         <v>95</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>76</v>
@@ -10012,7 +10014,7 @@
         <v>84</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>363</v>
@@ -10084,7 +10086,7 @@
         <v>95</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:11:51+00:00</t>
+    <t>2022-11-16T21:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:23:11+00:00</t>
+    <t>2022-11-17T06:36:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLAdministrableProductDefinition</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLAdministrableProductDefinition</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T06:36:33+00:00</t>
+    <t>2022-11-17T17:44:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Kind</t>
@@ -281,7 +281,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -371,7 +371,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -394,17 +394,13 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
-</t>
   </si>
   <si>
     <t>N/A</t>
@@ -447,7 +443,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -466,34 +462,40 @@
     <t>An identifier for the administrable product.</t>
   </si>
   <si>
+    <t>PhPID</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.status</t>
+  </si>
+  <si>
+    <t>draft | active | retired | unknown</t>
+  </si>
+  <si>
+    <t>The status of this administrable product. Enables tracking the life-cycle of the content.</t>
+  </si>
+  <si>
+    <t>Allows filtering of administrable products that are appropriate for use versus not.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The lifecycle status of an artifact.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0-ballot</t>
+  </si>
+  <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>AdministrableProductDefinition.status</t>
-  </si>
-  <si>
-    <t>draft | active | retired | unknown</t>
-  </si>
-  <si>
-    <t>The status of this administrable product. Enables tracking the life-cycle of the content.</t>
-  </si>
-  <si>
-    <t>Allows filtering of administrable products that are appropriate for use versus not.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The lifecycle status of an artifact.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|4.3.0</t>
-  </si>
-  <si>
     <t>AdministrableProductDefinition.formOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLMedicinalProductDefinition)
+    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLMedicinalProductDefinition)
 </t>
   </si>
   <si>
@@ -602,7 +604,7 @@
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
   </si>
   <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
@@ -778,7 +780,7 @@
     <t>AdministrableProductDefinition.producedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLManufacturedItemDefinition)
+    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLManufacturedItemDefinition)
 </t>
   </si>
   <si>
@@ -836,10 +838,6 @@
   </si>
   <si>
     <t>Characteristics e.g. a product's onset of action.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-</t>
   </si>
   <si>
     <t>Pharmaceutical Product Characteristics</t>
@@ -1469,7 +1467,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="110.58203125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.50390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.76953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -2341,25 +2339,25 @@
         <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>127</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2378,16 +2376,16 @@
         <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2437,7 +2435,7 @@
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -2449,7 +2447,7 @@
         <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>76</v>
@@ -2458,16 +2456,16 @@
         <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2483,22 +2481,22 @@
         <v>84</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>76</v>
@@ -2547,7 +2545,7 @@
         <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2559,7 +2557,7 @@
         <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>76</v>
@@ -2568,12 +2566,12 @@
         <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2596,13 +2594,13 @@
         <v>84</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2653,7 +2651,7 @@
         <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2668,10 +2666,10 @@
         <v>95</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>76</v>
@@ -2776,7 +2774,7 @@
         <v>95</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>76</v>
@@ -2787,7 +2785,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2810,13 +2808,13 @@
         <v>84</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2867,7 +2865,7 @@
         <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>74</v>
@@ -2882,7 +2880,7 @@
         <v>95</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
@@ -2893,7 +2891,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2916,13 +2914,13 @@
         <v>84</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2949,13 +2947,13 @@
         <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>76</v>
@@ -2973,7 +2971,7 @@
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>74</v>
@@ -2988,7 +2986,7 @@
         <v>95</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>76</v>
@@ -2999,7 +2997,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3025,10 +3023,10 @@
         <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3079,7 +3077,7 @@
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>74</v>
@@ -3100,16 +3098,16 @@
         <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3128,16 +3126,16 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K16" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3175,19 +3173,19 @@
         <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>74</v>
@@ -3199,7 +3197,7 @@
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>76</v>
@@ -3208,12 +3206,12 @@
         <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3236,19 +3234,19 @@
         <v>84</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>76</v>
@@ -3297,7 +3295,7 @@
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
@@ -3318,12 +3316,12 @@
         <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3349,10 +3347,10 @@
         <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3403,7 +3401,7 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
@@ -3424,16 +3422,16 @@
         <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3452,16 +3450,16 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K19" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3499,19 +3497,19 @@
         <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
@@ -3523,7 +3521,7 @@
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>76</v>
@@ -3532,12 +3530,12 @@
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3563,16 +3561,16 @@
         <v>97</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>76</v>
@@ -3582,7 +3580,7 @@
         <v>76</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>76</v>
@@ -3621,7 +3619,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -3642,12 +3640,12 @@
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3670,16 +3668,16 @@
         <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3729,7 +3727,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>74</v>
@@ -3750,12 +3748,12 @@
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3781,14 +3779,14 @@
         <v>103</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -3837,7 +3835,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
@@ -3858,12 +3856,12 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3886,17 +3884,17 @@
         <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
@@ -3945,7 +3943,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>74</v>
@@ -3966,12 +3964,12 @@
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3994,19 +3992,19 @@
         <v>84</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>76</v>
@@ -4055,7 +4053,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>74</v>
@@ -4076,12 +4074,12 @@
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4104,19 +4102,19 @@
         <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>76</v>
@@ -4165,7 +4163,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
@@ -4186,12 +4184,12 @@
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4214,13 +4212,13 @@
         <v>84</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4247,13 +4245,13 @@
         <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
@@ -4271,7 +4269,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
@@ -4286,7 +4284,7 @@
         <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
@@ -4297,7 +4295,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4323,10 +4321,10 @@
         <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4377,7 +4375,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>74</v>
@@ -4398,16 +4396,16 @@
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4426,16 +4424,16 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K28" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L28" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4473,19 +4471,19 @@
         <v>76</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>74</v>
@@ -4497,7 +4495,7 @@
         <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>76</v>
@@ -4506,12 +4504,12 @@
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4534,19 +4532,19 @@
         <v>84</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>76</v>
@@ -4595,7 +4593,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
@@ -4616,12 +4614,12 @@
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4647,10 +4645,10 @@
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4701,7 +4699,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
@@ -4722,16 +4720,16 @@
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4750,16 +4748,16 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K31" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L31" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4797,19 +4795,19 @@
         <v>76</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
@@ -4821,7 +4819,7 @@
         <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>76</v>
@@ -4830,12 +4828,12 @@
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4861,16 +4859,16 @@
         <v>97</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>76</v>
@@ -4880,7 +4878,7 @@
         <v>76</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>76</v>
@@ -4919,7 +4917,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
@@ -4940,12 +4938,12 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4968,16 +4966,16 @@
         <v>84</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5027,7 +5025,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
@@ -5048,12 +5046,12 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5079,14 +5077,14 @@
         <v>103</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>76</v>
@@ -5135,7 +5133,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
@@ -5156,12 +5154,12 @@
         <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5184,17 +5182,17 @@
         <v>84</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -5243,7 +5241,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
@@ -5264,12 +5262,12 @@
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5292,19 +5290,19 @@
         <v>84</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -5353,7 +5351,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
@@ -5374,12 +5372,12 @@
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5402,19 +5400,19 @@
         <v>84</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
@@ -5463,7 +5461,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
@@ -5484,12 +5482,12 @@
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5512,13 +5510,13 @@
         <v>84</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5569,7 +5567,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -5584,7 +5582,7 @@
         <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
@@ -5595,7 +5593,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5618,13 +5616,13 @@
         <v>84</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5651,13 +5649,13 @@
         <v>76</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>76</v>
@@ -5675,7 +5673,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -5690,7 +5688,7 @@
         <v>95</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>76</v>
@@ -5701,7 +5699,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5724,13 +5722,13 @@
         <v>84</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5781,7 +5779,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
@@ -5796,7 +5794,7 @@
         <v>95</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
@@ -5807,7 +5805,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5830,13 +5828,13 @@
         <v>84</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5887,7 +5885,7 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
@@ -5899,7 +5897,7 @@
         <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>266</v>
+        <v>95</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>267</v>
@@ -5936,13 +5934,13 @@
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5993,7 +5991,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
@@ -6014,7 +6012,7 @@
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43">
@@ -6023,7 +6021,7 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6042,16 +6040,16 @@
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K43" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L43" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6101,7 +6099,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>74</v>
@@ -6113,7 +6111,7 @@
         <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>76</v>
@@ -6122,7 +6120,7 @@
         <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44">
@@ -6150,7 +6148,7 @@
         <v>84</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>272</v>
@@ -6159,10 +6157,10 @@
         <v>273</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -6223,7 +6221,7 @@
         <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>76</v>
@@ -6232,7 +6230,7 @@
         <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45">
@@ -6260,7 +6258,7 @@
         <v>84</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>276</v>
@@ -6293,7 +6291,7 @@
         <v>76</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="X45" t="s" s="2">
         <v>278</v>
@@ -6472,7 +6470,7 @@
         <v>84</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>287</v>
@@ -6578,7 +6576,7 @@
         <v>84</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>291</v>
@@ -6647,7 +6645,7 @@
         <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>266</v>
+        <v>95</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>293</v>
@@ -6684,13 +6682,13 @@
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6741,7 +6739,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -6762,7 +6760,7 @@
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50">
@@ -6771,7 +6769,7 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6790,16 +6788,16 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K50" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L50" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -6849,7 +6847,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
@@ -6861,7 +6859,7 @@
         <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>76</v>
@@ -6870,7 +6868,7 @@
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51">
@@ -6898,7 +6896,7 @@
         <v>84</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>272</v>
@@ -6907,10 +6905,10 @@
         <v>273</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>76</v>
@@ -6971,7 +6969,7 @@
         <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>76</v>
@@ -6980,7 +6978,7 @@
         <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52">
@@ -7008,7 +7006,7 @@
         <v>84</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>298</v>
@@ -7041,7 +7039,7 @@
         <v>76</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="X52" t="s" s="2">
         <v>300</v>
@@ -7117,10 +7115,10 @@
         <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7171,7 +7169,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
@@ -7192,7 +7190,7 @@
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54">
@@ -7201,7 +7199,7 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7220,16 +7218,16 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K54" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L54" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7267,19 +7265,19 @@
         <v>76</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
@@ -7291,7 +7289,7 @@
         <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>76</v>
@@ -7300,7 +7298,7 @@
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55">
@@ -7328,19 +7326,19 @@
         <v>84</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
@@ -7389,7 +7387,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -7410,7 +7408,7 @@
         <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56">
@@ -7441,10 +7439,10 @@
         <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7495,7 +7493,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -7516,7 +7514,7 @@
         <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57">
@@ -7525,7 +7523,7 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7544,16 +7542,16 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K57" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L57" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7591,19 +7589,19 @@
         <v>76</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -7615,7 +7613,7 @@
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>76</v>
@@ -7624,7 +7622,7 @@
         <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58">
@@ -7655,16 +7653,16 @@
         <v>97</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>76</v>
@@ -7713,7 +7711,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
@@ -7734,7 +7732,7 @@
         <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59">
@@ -7762,16 +7760,16 @@
         <v>84</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -7821,7 +7819,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -7842,7 +7840,7 @@
         <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60">
@@ -7873,14 +7871,14 @@
         <v>103</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
@@ -7929,7 +7927,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -7950,7 +7948,7 @@
         <v>76</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61">
@@ -7978,17 +7976,17 @@
         <v>84</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>76</v>
@@ -8037,7 +8035,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
@@ -8058,7 +8056,7 @@
         <v>76</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62">
@@ -8086,19 +8084,19 @@
         <v>84</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>76</v>
@@ -8147,7 +8145,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
@@ -8168,7 +8166,7 @@
         <v>76</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63">
@@ -8196,19 +8194,19 @@
         <v>84</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>76</v>
@@ -8257,7 +8255,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
@@ -8278,7 +8276,7 @@
         <v>76</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64">
@@ -8836,7 +8834,7 @@
         <v>84</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>339</v>
@@ -8905,10 +8903,10 @@
         <v>76</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>266</v>
+        <v>95</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>76</v>
@@ -8942,13 +8940,13 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8999,7 +8997,7 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>74</v>
@@ -9020,7 +9018,7 @@
         <v>76</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71">
@@ -9029,7 +9027,7 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9048,16 +9046,16 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K71" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L71" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9107,7 +9105,7 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>74</v>
@@ -9119,7 +9117,7 @@
         <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>76</v>
@@ -9128,7 +9126,7 @@
         <v>76</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72">
@@ -9156,7 +9154,7 @@
         <v>84</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>272</v>
@@ -9165,10 +9163,10 @@
         <v>273</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>76</v>
@@ -9229,7 +9227,7 @@
         <v>76</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>76</v>
@@ -9238,7 +9236,7 @@
         <v>76</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73">
@@ -9266,7 +9264,7 @@
         <v>84</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>345</v>
@@ -9299,7 +9297,7 @@
         <v>76</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="X73" t="s" s="2">
         <v>347</v>
@@ -9338,7 +9336,7 @@
         <v>95</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>76</v>
@@ -9372,7 +9370,7 @@
         <v>84</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>350</v>
@@ -9441,10 +9439,10 @@
         <v>76</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>266</v>
+        <v>95</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>76</v>
@@ -9478,13 +9476,13 @@
         <v>76</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9535,7 +9533,7 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>74</v>
@@ -9556,7 +9554,7 @@
         <v>76</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76">
@@ -9565,7 +9563,7 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -9584,16 +9582,16 @@
         <v>76</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K76" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L76" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -9643,7 +9641,7 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>74</v>
@@ -9655,7 +9653,7 @@
         <v>76</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>76</v>
@@ -9664,7 +9662,7 @@
         <v>76</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77">
@@ -9692,7 +9690,7 @@
         <v>84</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>272</v>
@@ -9701,10 +9699,10 @@
         <v>273</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>76</v>
@@ -9765,7 +9763,7 @@
         <v>76</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>76</v>
@@ -9774,7 +9772,7 @@
         <v>76</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78">
@@ -9802,7 +9800,7 @@
         <v>84</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>356</v>
@@ -9835,7 +9833,7 @@
         <v>76</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="X78" t="s" s="2">
         <v>347</v>
@@ -9874,7 +9872,7 @@
         <v>95</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>76</v>
@@ -9980,7 +9978,7 @@
         <v>95</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>76</v>
@@ -10014,7 +10012,7 @@
         <v>84</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>363</v>
@@ -10086,7 +10084,7 @@
         <v>95</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLAdministrableProductDefinition</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLAdministrableProductDefinition</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T17:44:56+00:00</t>
+    <t>2022-11-18T19:44:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>4.3.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -281,7 +281,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -371,7 +371,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -394,13 +394,17 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
+</t>
   </si>
   <si>
     <t>N/A</t>
@@ -443,7 +447,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -462,10 +466,7 @@
     <t>An identifier for the administrable product.</t>
   </si>
   <si>
-    <t>PhPID</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
+    <t>n/a</t>
   </si>
   <si>
     <t>AdministrableProductDefinition.status</t>
@@ -486,16 +487,13 @@
     <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0-ballot</t>
-  </si>
-  <si>
-    <t>n/a</t>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.3.0</t>
   </si>
   <si>
     <t>AdministrableProductDefinition.formOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLMedicinalProductDefinition)
+    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLMedicinalProductDefinition)
 </t>
   </si>
   <si>
@@ -604,7 +602,7 @@
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
   </si>
   <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
@@ -780,7 +778,7 @@
     <t>AdministrableProductDefinition.producedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLManufacturedItemDefinition)
+    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLManufacturedItemDefinition)
 </t>
   </si>
   <si>
@@ -838,6 +836,10 @@
   </si>
   <si>
     <t>Characteristics e.g. a product's onset of action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
+</t>
   </si>
   <si>
     <t>Pharmaceutical Product Characteristics</t>
@@ -1467,7 +1469,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="110.58203125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.76953125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.50390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -2339,7 +2341,7 @@
         <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>76</v>
@@ -2348,16 +2350,16 @@
         <v>76</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2376,16 +2378,16 @@
         <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2435,7 +2437,7 @@
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -2447,7 +2449,7 @@
         <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>76</v>
@@ -2456,16 +2458,16 @@
         <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2481,22 +2483,22 @@
         <v>84</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>76</v>
@@ -2545,7 +2547,7 @@
         <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2557,7 +2559,7 @@
         <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>76</v>
@@ -2566,12 +2568,12 @@
         <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2594,13 +2596,13 @@
         <v>84</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2651,7 +2653,7 @@
         <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2666,10 +2668,10 @@
         <v>95</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>76</v>
@@ -2774,7 +2776,7 @@
         <v>95</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>76</v>
@@ -2785,7 +2787,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2808,13 +2810,13 @@
         <v>84</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2865,7 +2867,7 @@
         <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>74</v>
@@ -2880,7 +2882,7 @@
         <v>95</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
@@ -2891,7 +2893,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2914,13 +2916,13 @@
         <v>84</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2947,14 +2949,14 @@
         <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>76</v>
       </c>
@@ -2971,7 +2973,7 @@
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>74</v>
@@ -2986,7 +2988,7 @@
         <v>95</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>76</v>
@@ -2997,7 +2999,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3023,10 +3025,10 @@
         <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3077,7 +3079,7 @@
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>74</v>
@@ -3098,16 +3100,16 @@
         <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3126,16 +3128,16 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3173,19 +3175,19 @@
         <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AB16" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AB16" t="s" s="2">
+      <c r="AC16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD16" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AC16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD16" t="s" s="2">
+      <c r="AE16" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>74</v>
@@ -3197,7 +3199,7 @@
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>76</v>
@@ -3206,12 +3208,12 @@
         <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3234,19 +3236,19 @@
         <v>84</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>76</v>
@@ -3295,7 +3297,7 @@
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
@@ -3316,12 +3318,12 @@
         <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3347,10 +3349,10 @@
         <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3401,7 +3403,7 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
@@ -3422,16 +3424,16 @@
         <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3450,16 +3452,16 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3497,19 +3499,19 @@
         <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AB19" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AB19" t="s" s="2">
+      <c r="AC19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD19" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AC19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD19" t="s" s="2">
+      <c r="AE19" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
@@ -3521,7 +3523,7 @@
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>76</v>
@@ -3530,12 +3532,12 @@
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3561,16 +3563,16 @@
         <v>97</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>76</v>
@@ -3580,46 +3582,46 @@
         <v>76</v>
       </c>
       <c r="R20" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -3640,12 +3642,12 @@
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3668,16 +3670,16 @@
         <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3727,7 +3729,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>74</v>
@@ -3748,12 +3750,12 @@
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3779,14 +3781,14 @@
         <v>103</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -3835,7 +3837,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
@@ -3856,12 +3858,12 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3884,17 +3886,17 @@
         <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
@@ -3943,7 +3945,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>74</v>
@@ -3964,12 +3966,12 @@
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3992,19 +3994,19 @@
         <v>84</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>76</v>
@@ -4053,7 +4055,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>74</v>
@@ -4074,12 +4076,12 @@
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4102,19 +4104,19 @@
         <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>76</v>
@@ -4163,7 +4165,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
@@ -4184,12 +4186,12 @@
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4212,13 +4214,13 @@
         <v>84</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4245,14 +4247,14 @@
         <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>233</v>
-      </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4269,7 +4271,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
@@ -4284,7 +4286,7 @@
         <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
@@ -4295,7 +4297,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4321,10 +4323,10 @@
         <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4375,7 +4377,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>74</v>
@@ -4396,16 +4398,16 @@
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4424,16 +4426,16 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4471,19 +4473,19 @@
         <v>76</v>
       </c>
       <c r="AA28" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AB28" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AB28" t="s" s="2">
+      <c r="AC28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD28" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AC28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD28" t="s" s="2">
+      <c r="AE28" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>74</v>
@@ -4495,7 +4497,7 @@
         <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>76</v>
@@ -4504,12 +4506,12 @@
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4532,19 +4534,19 @@
         <v>84</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>76</v>
@@ -4593,7 +4595,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
@@ -4614,12 +4616,12 @@
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4645,10 +4647,10 @@
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4699,7 +4701,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
@@ -4720,16 +4722,16 @@
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4748,16 +4750,16 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4795,19 +4797,19 @@
         <v>76</v>
       </c>
       <c r="AA31" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AB31" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AB31" t="s" s="2">
+      <c r="AC31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD31" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AC31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD31" t="s" s="2">
+      <c r="AE31" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
@@ -4819,7 +4821,7 @@
         <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>76</v>
@@ -4828,12 +4830,12 @@
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4859,16 +4861,16 @@
         <v>97</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>76</v>
@@ -4878,7 +4880,7 @@
         <v>76</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>76</v>
@@ -4917,7 +4919,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
@@ -4938,12 +4940,12 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4966,16 +4968,16 @@
         <v>84</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5025,7 +5027,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
@@ -5046,12 +5048,12 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5077,14 +5079,14 @@
         <v>103</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>76</v>
@@ -5133,7 +5135,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
@@ -5154,12 +5156,12 @@
         <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5182,17 +5184,17 @@
         <v>84</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -5241,7 +5243,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
@@ -5262,12 +5264,12 @@
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5290,19 +5292,19 @@
         <v>84</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -5351,7 +5353,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
@@ -5372,12 +5374,12 @@
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5400,19 +5402,19 @@
         <v>84</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
@@ -5461,7 +5463,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
@@ -5482,12 +5484,12 @@
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5510,13 +5512,13 @@
         <v>84</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5567,7 +5569,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -5582,7 +5584,7 @@
         <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
@@ -5593,7 +5595,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5616,13 +5618,13 @@
         <v>84</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5649,14 +5651,14 @@
         <v>76</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="Y39" t="s" s="2">
-        <v>256</v>
-      </c>
       <c r="Z39" t="s" s="2">
         <v>76</v>
       </c>
@@ -5673,7 +5675,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -5688,7 +5690,7 @@
         <v>95</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>76</v>
@@ -5699,7 +5701,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5722,13 +5724,13 @@
         <v>84</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5779,7 +5781,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
@@ -5794,7 +5796,7 @@
         <v>95</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
@@ -5805,7 +5807,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5828,13 +5830,13 @@
         <v>84</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5885,7 +5887,7 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
@@ -5897,7 +5899,7 @@
         <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>95</v>
+        <v>266</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>267</v>
@@ -5934,13 +5936,13 @@
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5991,7 +5993,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
@@ -6012,7 +6014,7 @@
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43">
@@ -6021,7 +6023,7 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6040,16 +6042,16 @@
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6099,7 +6101,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>74</v>
@@ -6111,7 +6113,7 @@
         <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>76</v>
@@ -6120,7 +6122,7 @@
         <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44">
@@ -6148,7 +6150,7 @@
         <v>84</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>272</v>
@@ -6157,10 +6159,10 @@
         <v>273</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -6221,7 +6223,7 @@
         <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>76</v>
@@ -6230,7 +6232,7 @@
         <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
@@ -6258,7 +6260,7 @@
         <v>84</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>276</v>
@@ -6291,7 +6293,7 @@
         <v>76</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X45" t="s" s="2">
         <v>278</v>
@@ -6470,7 +6472,7 @@
         <v>84</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>287</v>
@@ -6576,7 +6578,7 @@
         <v>84</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>291</v>
@@ -6645,7 +6647,7 @@
         <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>95</v>
+        <v>266</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>293</v>
@@ -6682,13 +6684,13 @@
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6739,7 +6741,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -6760,7 +6762,7 @@
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50">
@@ -6769,7 +6771,7 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6788,16 +6790,16 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -6847,7 +6849,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
@@ -6859,7 +6861,7 @@
         <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>76</v>
@@ -6868,7 +6870,7 @@
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51">
@@ -6896,7 +6898,7 @@
         <v>84</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>272</v>
@@ -6905,10 +6907,10 @@
         <v>273</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>76</v>
@@ -6969,7 +6971,7 @@
         <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>76</v>
@@ -6978,7 +6980,7 @@
         <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52">
@@ -7006,7 +7008,7 @@
         <v>84</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>298</v>
@@ -7039,7 +7041,7 @@
         <v>76</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X52" t="s" s="2">
         <v>300</v>
@@ -7115,10 +7117,10 @@
         <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7169,7 +7171,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
@@ -7190,7 +7192,7 @@
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54">
@@ -7199,7 +7201,7 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7218,16 +7220,16 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7265,19 +7267,19 @@
         <v>76</v>
       </c>
       <c r="AA54" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AB54" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AB54" t="s" s="2">
+      <c r="AC54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD54" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AC54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD54" t="s" s="2">
+      <c r="AE54" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
@@ -7289,7 +7291,7 @@
         <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>76</v>
@@ -7298,7 +7300,7 @@
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55">
@@ -7326,19 +7328,19 @@
         <v>84</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
@@ -7387,7 +7389,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -7408,7 +7410,7 @@
         <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56">
@@ -7439,10 +7441,10 @@
         <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7493,7 +7495,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -7514,7 +7516,7 @@
         <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57">
@@ -7523,7 +7525,7 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7542,16 +7544,16 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7589,19 +7591,19 @@
         <v>76</v>
       </c>
       <c r="AA57" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AB57" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AB57" t="s" s="2">
+      <c r="AC57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD57" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AC57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD57" t="s" s="2">
+      <c r="AE57" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -7613,7 +7615,7 @@
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>76</v>
@@ -7622,7 +7624,7 @@
         <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58">
@@ -7653,16 +7655,16 @@
         <v>97</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>76</v>
@@ -7711,7 +7713,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
@@ -7732,7 +7734,7 @@
         <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59">
@@ -7760,16 +7762,16 @@
         <v>84</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -7819,7 +7821,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -7840,7 +7842,7 @@
         <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60">
@@ -7871,14 +7873,14 @@
         <v>103</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
@@ -7927,7 +7929,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -7948,7 +7950,7 @@
         <v>76</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="61">
@@ -7976,17 +7978,17 @@
         <v>84</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>76</v>
@@ -8035,7 +8037,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
@@ -8056,7 +8058,7 @@
         <v>76</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62">
@@ -8084,19 +8086,19 @@
         <v>84</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>76</v>
@@ -8145,7 +8147,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
@@ -8166,7 +8168,7 @@
         <v>76</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63">
@@ -8194,19 +8196,19 @@
         <v>84</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>76</v>
@@ -8255,7 +8257,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
@@ -8276,7 +8278,7 @@
         <v>76</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64">
@@ -8834,7 +8836,7 @@
         <v>84</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>339</v>
@@ -8903,10 +8905,10 @@
         <v>76</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>95</v>
+        <v>266</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>76</v>
@@ -8940,13 +8942,13 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8997,7 +8999,7 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>74</v>
@@ -9018,7 +9020,7 @@
         <v>76</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71">
@@ -9027,7 +9029,7 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9046,16 +9048,16 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9105,7 +9107,7 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>74</v>
@@ -9117,7 +9119,7 @@
         <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>76</v>
@@ -9126,7 +9128,7 @@
         <v>76</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72">
@@ -9154,7 +9156,7 @@
         <v>84</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>272</v>
@@ -9163,10 +9165,10 @@
         <v>273</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>76</v>
@@ -9227,7 +9229,7 @@
         <v>76</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>76</v>
@@ -9236,7 +9238,7 @@
         <v>76</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73">
@@ -9264,7 +9266,7 @@
         <v>84</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>345</v>
@@ -9297,7 +9299,7 @@
         <v>76</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X73" t="s" s="2">
         <v>347</v>
@@ -9336,7 +9338,7 @@
         <v>95</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>76</v>
@@ -9370,7 +9372,7 @@
         <v>84</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>350</v>
@@ -9439,10 +9441,10 @@
         <v>76</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>95</v>
+        <v>266</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>76</v>
@@ -9476,13 +9478,13 @@
         <v>76</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9533,7 +9535,7 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>74</v>
@@ -9554,7 +9556,7 @@
         <v>76</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76">
@@ -9563,7 +9565,7 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -9582,16 +9584,16 @@
         <v>76</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -9641,7 +9643,7 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>74</v>
@@ -9653,7 +9655,7 @@
         <v>76</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>76</v>
@@ -9662,7 +9664,7 @@
         <v>76</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77">
@@ -9690,7 +9692,7 @@
         <v>84</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>272</v>
@@ -9699,10 +9701,10 @@
         <v>273</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>76</v>
@@ -9763,7 +9765,7 @@
         <v>76</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>76</v>
@@ -9772,7 +9774,7 @@
         <v>76</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78">
@@ -9800,7 +9802,7 @@
         <v>84</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>356</v>
@@ -9833,7 +9835,7 @@
         <v>76</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X78" t="s" s="2">
         <v>347</v>
@@ -9872,7 +9874,7 @@
         <v>95</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>76</v>
@@ -9978,7 +9980,7 @@
         <v>95</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>76</v>
@@ -10012,7 +10014,7 @@
         <v>84</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>363</v>
@@ -10084,7 +10086,7 @@
         <v>95</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:44:59+00:00</t>
+    <t>2022-11-18T19:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:50:12+00:00</t>
+    <t>2022-11-18T19:51:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:51:53+00:00</t>
+    <t>2022-11-18T19:52:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:52:09+00:00</t>
+    <t>2022-11-18T19:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:57:45+00:00</t>
+    <t>2022-11-19T06:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:26:15+00:00</t>
+    <t>2022-11-19T22:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:53:07+00:00</t>
+    <t>2022-11-20T07:00:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:00:59+00:00</t>
+    <t>2022-11-20T07:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:03:41+00:00</t>
+    <t>2022-11-20T09:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:12:02+00:00</t>
+    <t>2022-11-20T17:48:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:48:06+00:00</t>
+    <t>2022-11-20T20:12:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:12:04+00:00</t>
+    <t>2022-11-20T20:23:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:23:35+00:00</t>
+    <t>2022-11-21T10:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T10:47:26+00:00</t>
+    <t>2022-11-22T13:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T20:42:27+00:00</t>
+    <t>2022-11-24T22:13:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
